--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization-organization.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="161">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>This extension indicates whether logical references will be checked in the context of a NamingSystem resource. If set to true, logical references will be validated against the NamingSystem's unique identifiers.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -420,7 +417,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -496,7 +493,7 @@
     <t>Extension.value[x].assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -746,57 +743,55 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>12</v>
@@ -804,18 +799,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -834,163 +829,163 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.75" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.9296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.5234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="20.21875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="24.01953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="143.54296875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="139.84375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="37.421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.19921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="86.17578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -998,28 +993,28 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1070,19 +1065,19 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH2" t="s" s="2">
+      <c r="AI2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI2" t="s" s="2">
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>20</v>
@@ -1090,10 +1085,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1101,10 +1096,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -1116,13 +1111,13 @@
         <v>20</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1173,42 +1168,42 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
       </c>
@@ -1219,16 +1214,16 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1266,42 +1261,42 @@
         <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AG4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH4" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1309,10 +1304,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1324,16 +1319,16 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1383,13 +1378,13 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
@@ -1398,15 +1393,15 @@
         <v>20</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1414,10 +1409,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1429,13 +1424,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1486,30 +1481,30 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1517,10 +1512,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -1532,13 +1527,13 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1589,42 +1584,42 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
       </c>
@@ -1635,16 +1630,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1682,42 +1677,42 @@
         <v>20</v>
       </c>
       <c r="AB8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC8" t="s" s="2">
+      <c r="AD8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AD8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE8" t="s" s="2">
+      <c r="AF8" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AF8" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AG8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH8" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH8" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1725,34 +1720,34 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="J9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="O9" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>20</v>
@@ -1777,54 +1772,54 @@
         <v>20</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="Z9" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="Z9" t="s" s="2">
+      <c r="AA9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AA9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1832,10 +1827,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -1844,22 +1839,22 @@
         <v>20</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -1884,54 +1879,54 @@
         <v>20</v>
       </c>
       <c r="X10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y10" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="Y10" t="s" s="2">
+      <c r="Z10" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="Z10" t="s" s="2">
+      <c r="AA10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AA10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1939,10 +1934,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -1951,94 +1946,94 @@
         <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T11" t="s" s="2">
+      <c r="U11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="U11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF11" t="s" s="2">
+      <c r="AG11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2046,10 +2041,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -2058,19 +2053,19 @@
         <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2084,66 +2079,66 @@
         <v>20</v>
       </c>
       <c r="T12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="U12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF12" t="s" s="2">
+      <c r="AG12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2151,10 +2146,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2163,16 +2158,16 @@
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2223,30 +2218,30 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2254,10 +2249,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -2266,19 +2261,19 @@
         <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2328,22 +2323,22 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization-organization.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>Publisher</t>
